--- a/docss/trend/luxembourg/E_huntington.xlsx
+++ b/docss/trend/luxembourg/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\luxembourg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,13 +1592,13 @@
         <v>2005</v>
       </c>
       <c r="B2" s="7">
-        <v>0.22632114589214325</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <v>0.46504417061805725</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +1606,13 @@
         <v>2006</v>
       </c>
       <c r="B3" s="7">
-        <v>0.15938796103000641</v>
+        <v>0.159</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>0.21097046136856079</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,10 +1662,10 @@
         <v>2010</v>
       </c>
       <c r="B7" s="7">
-        <v>0.19692239165306091</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="C7" s="8">
-        <v>0.38622820377349854</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -1704,13 +1704,13 @@
         <v>2013</v>
       </c>
       <c r="B10" s="7">
-        <v>0.38564674556255341</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C10" s="8">
-        <v>0.40783035755157471</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D10" s="7">
-        <v>0.3633720874786377</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1718,13 @@
         <v>2014</v>
       </c>
       <c r="B11" s="7">
-        <v>0.16338089108467102</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>0.30781859159469604</v>
+        <v>0.308</v>
       </c>
     </row>
   </sheetData>
